--- a/Tercero/DIR/GIC-DIR-P1-e7/GIC-DIR-Practica2-e2-VLANs_v5.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e7/GIC-DIR-Practica2-e2-VLANs_v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Tercero\DIR\GIC-DIR-P1-e7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D87CDF1-9282-42FF-8873-74A1FA83F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FADF7BD-4DD1-4BE0-81AC-3543C0E1D73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="250">
   <si>
     <t>DEPARTAMENTOS</t>
   </si>
@@ -774,6 +774,15 @@
   </si>
   <si>
     <t>192.168.0.18/30</t>
+  </si>
+  <si>
+    <t>IP PÚBLICA</t>
+  </si>
+  <si>
+    <t>80.1.1.128</t>
+  </si>
+  <si>
+    <t>80.1.1.129</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1424,35 +1433,47 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1481,19 +1502,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,47 +1520,35 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1887,37 +1890,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -2291,17 +2294,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2315,7 +2318,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>53</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>60</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>61</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>16382</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>65</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>66</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>69</v>
       </c>
@@ -2554,13 +2557,13 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="71" t="s">
+      <c r="Q19" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="72"/>
-      <c r="S19" s="73"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R19" s="76"/>
+      <c r="S19" s="77"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>72</v>
       </c>
@@ -2582,13 +2585,13 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="74" t="s">
+      <c r="Q20" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="75"/>
-      <c r="S20" s="76"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R20" s="79"/>
+      <c r="S20" s="80"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>76</v>
       </c>
@@ -2609,13 +2612,13 @@
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="74" t="s">
+      <c r="Q21" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="75"/>
-      <c r="S21" s="76"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R21" s="79"/>
+      <c r="S21" s="80"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>79</v>
       </c>
@@ -2640,13 +2643,13 @@
       <c r="H22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="77" t="s">
+      <c r="Q22" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="78"/>
-      <c r="S22" s="79"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R22" s="82"/>
+      <c r="S22" s="83"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>83</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>88</v>
       </c>
@@ -2694,7 +2697,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>86</v>
       </c>
@@ -2716,7 +2719,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>84</v>
       </c>
@@ -2738,19 +2741,19 @@
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
     </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="67" t="s">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>91</v>
       </c>
@@ -2774,7 +2777,7 @@
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>94</v>
       </c>
@@ -2798,7 +2801,7 @@
       </c>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>96</v>
       </c>
@@ -2822,7 +2825,7 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>98</v>
       </c>
@@ -2846,7 +2849,7 @@
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
@@ -2870,7 +2873,7 @@
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
@@ -2894,7 +2897,7 @@
       </c>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>105</v>
       </c>
@@ -2918,7 +2921,7 @@
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>106</v>
       </c>
@@ -2942,7 +2945,7 @@
       </c>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>108</v>
       </c>
@@ -2966,7 +2969,7 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>109</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>110</v>
       </c>
@@ -3013,7 +3016,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>111</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>112</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>113</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>114</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>115</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>116</v>
       </c>
@@ -3153,7 +3156,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>117</v>
       </c>
@@ -3177,7 +3180,7 @@
       </c>
       <c r="I45" s="33"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>118</v>
       </c>
@@ -3201,7 +3204,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>119</v>
       </c>
@@ -3225,7 +3228,7 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>120</v>
       </c>
@@ -3249,7 +3252,7 @@
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>177</v>
       </c>
@@ -3274,7 +3277,7 @@
       <c r="H49" s="37"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="52" t="s">
         <v>180</v>
       </c>
@@ -3299,20 +3302,20 @@
       <c r="H50" s="33"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="70" t="s">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="69"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="98"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>122</v>
       </c>
@@ -3328,12 +3331,14 @@
       <c r="E52" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="32" t="s">
+        <v>247</v>
+      </c>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>127</v>
       </c>
@@ -3353,7 +3358,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>130</v>
       </c>
@@ -3369,11 +3374,13 @@
       <c r="E54" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="F54" s="51"/>
+      <c r="F54" s="51" t="s">
+        <v>248</v>
+      </c>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -3389,11 +3396,13 @@
       <c r="E55" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="F55" s="51"/>
+      <c r="F55" s="51" t="s">
+        <v>249</v>
+      </c>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>132</v>
       </c>
@@ -3413,7 +3422,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>133</v>
       </c>
@@ -3433,7 +3442,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>134</v>
       </c>
@@ -3451,7 +3460,7 @@
       </c>
       <c r="F58" s="51"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>135</v>
       </c>
@@ -3469,7 +3478,7 @@
       </c>
       <c r="F59" s="51"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>175</v>
       </c>
@@ -3487,7 +3496,7 @@
       </c>
       <c r="F60" s="51"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>176</v>
       </c>
@@ -3505,7 +3514,7 @@
       </c>
       <c r="F61" s="51"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>224</v>
       </c>
@@ -3523,7 +3532,7 @@
       </c>
       <c r="F62" s="51"/>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>226</v>
       </c>
@@ -3543,54 +3552,54 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="85" t="s">
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="87"/>
-    </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="88" t="s">
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="89"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="B65" s="89"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="88" t="s">
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="64" t="s">
         <v>197</v>
       </c>
       <c r="E65" s="60"/>
-      <c r="F65" s="91"/>
+      <c r="F65" s="67"/>
       <c r="G65" s="37"/>
     </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="92" t="s">
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="93" t="s">
+      <c r="B66" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="94" t="s">
+      <c r="C66" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="95" t="s">
+      <c r="D66" s="71" t="s">
         <v>196</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F66" s="96" t="s">
+      <c r="F66" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="G66" s="97" t="s">
+      <c r="G66" s="73" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="58" t="s">
         <v>182</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
         <v>183</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="s">
         <v>184</v>
       </c>
@@ -3653,7 +3662,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="59" t="s">
         <v>185</v>
       </c>
@@ -3673,77 +3682,77 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="98" t="s">
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="100"/>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="80" t="s">
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="86"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B72" s="101" t="s">
+      <c r="B72" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="C72" s="96" t="s">
+      <c r="C72" s="72" t="s">
         <v>232</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="81" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="B73" s="82" t="s">
+      <c r="B73" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="17" t="s">
         <v>238</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="23" t="s">
         <v>241</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C75" s="84" t="s">
+      <c r="C75" s="23" t="s">
         <v>245</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="84"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="52"/>
       <c r="B77" s="42"/>
       <c r="C77" s="43"/>
@@ -3754,16 +3763,16 @@
     <sortCondition ref="F3:F11"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A51:F51"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tercero/DIR/GIC-DIR-P1-e7/GIC-DIR-Practica2-e2-VLANs_v5.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e7/GIC-DIR-Practica2-e2-VLANs_v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Tercero\DIR\GIC-DIR-P1-e7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FADF7BD-4DD1-4BE0-81AC-3543C0E1D73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A710F5-DEE1-4852-8FB8-2F8E5613B302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="250">
   <si>
     <t>DEPARTAMENTOS</t>
   </si>
@@ -1475,6 +1475,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1518,36 +1548,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1890,37 +1890,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -2294,17 +2294,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2318,7 +2318,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>53</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>60</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>61</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>16382</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>65</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
         <v>66</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>69</v>
       </c>
@@ -2557,13 +2557,13 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="75" t="s">
+      <c r="Q19" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="76"/>
-      <c r="S19" s="77"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R19" s="86"/>
+      <c r="S19" s="87"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>72</v>
       </c>
@@ -2585,13 +2585,13 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="78" t="s">
+      <c r="Q20" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="79"/>
-      <c r="S20" s="80"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R20" s="89"/>
+      <c r="S20" s="90"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>76</v>
       </c>
@@ -2612,13 +2612,13 @@
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="78" t="s">
+      <c r="Q21" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="79"/>
-      <c r="S21" s="80"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R21" s="89"/>
+      <c r="S21" s="90"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>79</v>
       </c>
@@ -2643,13 +2643,13 @@
       <c r="H22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="81" t="s">
+      <c r="Q22" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="82"/>
-      <c r="S22" s="83"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R22" s="92"/>
+      <c r="S22" s="93"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>83</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>88</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>86</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>84</v>
       </c>
@@ -2741,19 +2741,19 @@
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="96" t="s">
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="83"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
         <v>91</v>
       </c>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>94</v>
       </c>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>96</v>
       </c>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>98</v>
       </c>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>105</v>
       </c>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>106</v>
       </c>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>108</v>
       </c>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>109</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>110</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>111</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>112</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>113</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>114</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>115</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>116</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>117</v>
       </c>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="I45" s="33"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>118</v>
       </c>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>119</v>
       </c>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>120</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>177</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="H49" s="37"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="52" t="s">
         <v>180</v>
       </c>
@@ -3302,20 +3302,20 @@
       <c r="H50" s="33"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="99" t="s">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="98"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="83"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="29" t="s">
         <v>122</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>127</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>130</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>132</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>133</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>134</v>
       </c>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="F58" s="51"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>135</v>
       </c>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="F59" s="51"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>175</v>
       </c>
@@ -3494,9 +3494,11 @@
       <c r="E60" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="51"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>176</v>
       </c>
@@ -3514,7 +3516,7 @@
       </c>
       <c r="F61" s="51"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>224</v>
       </c>
@@ -3532,7 +3534,7 @@
       </c>
       <c r="F62" s="51"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>226</v>
       </c>
@@ -3552,18 +3554,18 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="87" t="s">
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="88"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="89"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="98"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="99"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="64" t="s">
         <v>181</v>
       </c>
@@ -3576,7 +3578,7 @@
       <c r="F65" s="67"/>
       <c r="G65" s="37"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="68" t="s">
         <v>194</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="58" t="s">
         <v>182</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="58" t="s">
         <v>183</v>
       </c>
@@ -3642,7 +3644,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="58" t="s">
         <v>184</v>
       </c>
@@ -3662,7 +3664,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="59" t="s">
         <v>185</v>
       </c>
@@ -3682,15 +3684,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="84" t="s">
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="86"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="96"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="61" t="s">
         <v>231</v>
       </c>
@@ -3704,7 +3706,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="62" t="s">
         <v>235</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>240</v>
       </c>
@@ -3732,7 +3734,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>243</v>
       </c>
@@ -3746,13 +3748,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="23"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="52"/>
       <c r="B77" s="42"/>
       <c r="C77" s="43"/>
@@ -3763,6 +3765,8 @@
     <sortCondition ref="F3:F11"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A64:G64"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A27:H27"/>
@@ -3771,8 +3775,6 @@
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A64:G64"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
